--- a/CH-84 Normal Distribution.xlsx
+++ b/CH-84 Normal Distribution.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C8C5D8-BA8D-41EF-914C-59E17CB589EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA40B9A0-310A-4E60-A7B9-F35DB85A831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$3:$O$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$N$3:$O$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$N$3:$O$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Z</t>
   </si>
@@ -54,6 +78,12 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>This looks like a two-dimensional lookup.</t>
+  </si>
+  <si>
+    <t>What is meant by closest?</t>
   </si>
 </sst>
 </file>
@@ -396,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -501,6 +531,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1504,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2016,4 +2047,1522 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50AB575-EC42-4E43-8A2B-17C63E38866C}">
+  <dimension ref="A1:O127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="5.8984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.8984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.8984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="15" width="14.8984375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="N1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="J2" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="N3" s="26">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.57E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.96E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="N4" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="O4" s="27">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.1026</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.1103</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="N5" s="29">
+        <v>0.2823</v>
+      </c>
+      <c r="O5" s="27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.1179</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1217</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.1255</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.1293</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.1331</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.1368</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.1406</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.1517</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.15540000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.1628</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.1736</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.1772</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.1915</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2019</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.2054</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.2157</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.219</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.2291</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.2324</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.2389</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.2422</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="O9" s="27">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.2611</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.2823</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.28520000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.31330000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.33889999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.34129999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.3508</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.3599</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.36209999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E17" s="2" cm="1">
+        <f t="array" ref="E17">_xlfn.XLOOKUP($B$17,_xlfn.ANCHORARRAY($C$18),_xlfn.ANCHORARRAY($B$18),,-1)</f>
+        <v>0.96</v>
+      </c>
+      <c r="F17" s="2" cm="1">
+        <f t="array" ref="F17">_xlfn.XLOOKUP($B$17,_xlfn.ANCHORARRAY($C$18),_xlfn.ANCHORARRAY($B$18),,-1)</f>
+        <v>0.96</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="36" cm="1">
+        <f t="array" ref="B18:B127">_xlfn.TOCOL(B3:B13+C2:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" cm="1">
+        <f t="array" ref="C18:C127">_xlfn.TOCOL(C3:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f>F17</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H19" s="26">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="dataTable" ref="I19:I25" dt2D="0" dtr="0" r1="B17"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="K19" s="2" t="b" cm="1">
+        <f t="array" ref="K19:L25">H19:I25=N3:O9</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H20" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0.2823</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H22" s="30">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H23" s="31">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="2">
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.7800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5.1700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5.57E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="2">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6.3600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7.1400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="C37" s="2">
+        <v>7.5300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7.9299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="2">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8.7099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="2">
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9.8699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.10639999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.1103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="2">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.11409999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.1179</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.1217</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.1255</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51" s="2">
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.1293</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52" s="2">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.1331</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.1368</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.1406</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.14430000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B57" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.1517</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.15540000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59" s="2">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.15909999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B60" s="2">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.1628</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B61" s="2">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.16639999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B63" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.1736</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B64" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.1772</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65" s="2">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.18079999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66" s="2">
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.18440000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.18790000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.1915</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.19850000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.2019</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B72" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.2054</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B73" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.20880000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.21229999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B75" s="2">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.2157</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B76" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B77" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.22239999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B78" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.22570000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B79" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.2291</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B80" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.2324</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B81" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.23569999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B82" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.2389</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B83" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.2422</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B84" s="2">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.24540000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B85" s="2">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.24859999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B86" s="2">
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.25169999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B87" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.25490000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B88" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B89" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.2611</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B90" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.26419999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B91" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.26729999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B92" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.27039999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B93" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.27339999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B94" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.27639999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B95" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.27939999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B96" s="2">
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.2823</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B97" s="2">
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.28520000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B98" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.28810000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B99" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B100" s="2">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.29389999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B101" s="2">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.29670000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B102" s="2">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.29949999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B103" s="2">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B104" s="2">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.30509999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B105" s="2">
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.30780000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B106" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.31059999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B107" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.31330000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B108" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.31590000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B109" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.31859999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B110" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.32119999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B111" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.32379999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B112" s="2">
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.32640000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B113" s="2">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.32890000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B114" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.33150000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B115" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B116" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.33650000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B117" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.33889999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.34129999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B119" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B120" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.34610000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B121" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.34849999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B122" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.3508</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B123" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.35310000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B124" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.35539999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B125" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.35770000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B126" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.3599</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B127" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.36209999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-84 Normal Distribution.xlsx
+++ b/CH-84 Normal Distribution.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA40B9A0-310A-4E60-A7B9-F35DB85A831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2D102-8C3C-4EA8-B64D-1E2D6B707E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alt!$N$3:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$N$3:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$N$3:$O$4</definedName>
   </definedNames>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>Z</t>
   </si>
@@ -90,10 +92,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -426,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -528,10 +531,11 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1531,6 +1535,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="858" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{0181A599-7D8F-4FE3-93BF-A24973C764A9}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
@@ -1550,19 +1581,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
       <c r="N1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50AB575-EC42-4E43-8A2B-17C63E38866C}">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -2077,19 +2108,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
       <c r="N1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2587,7 +2618,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="36" cm="1">
+      <c r="B18" s="35" cm="1">
         <f t="array" ref="B18:B127">_xlfn.TOCOL(B3:B13+C2:L2)</f>
         <v>0</v>
       </c>
@@ -3556,6 +3587,564 @@
       </c>
       <c r="C127" s="2">
         <v>0.36209999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7606F015-793F-4926-B0BC-9791639C7209}">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.69921875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" style="2" customWidth="1"/>
+    <col min="5" max="12" width="5.8984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="15" width="14.8984375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="N1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="J2" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="N3" s="26">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.57E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.96E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="N4" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="O4" s="27">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.1026</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.1103</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="N5" s="29">
+        <v>0.2823</v>
+      </c>
+      <c r="O5" s="27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.1179</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1217</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.1255</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.1293</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.1331</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.1368</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.1406</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.1517</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.15540000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.1628</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.1736</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.1772</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.1915</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2019</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.2054</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.2157</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.219</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.2291</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.2324</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.2389</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.2422</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="O9" s="27">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.2611</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.2823</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.28520000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.31330000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.33889999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.34129999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.3508</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.3599</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.36209999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O17" s="37" cm="1">
+        <f t="array" ref="O17:O23">_xlfn.LET(
+_xlpm.a, _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",",TRUE,C2:L2&amp;"-"&amp;B3:B13&amp;"-"&amp;C3:L13),"-",",")*1,
+_xlpm.b, _xlfn.BYROW(N3:N9, _xlfn.LAMBDA(_xlpm.x, SUM(_xlfn.XLOOKUP(_xlpm.x,_xlfn.TAKE(_xlpm.a,,-1),_xlfn.TAKE(_xlpm.a,,2),,-1)))),
+_xlpm.b
+)</f>
+        <v>0.12000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O18" s="37">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O19" s="37">
+        <v>0.77999999999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O20" s="37">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O21" s="37">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O22" s="37">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O23" s="37">
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>

--- a/CH-84 Normal Distribution.xlsx
+++ b/CH-84 Normal Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2D102-8C3C-4EA8-B64D-1E2D6B707E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A7CF53-D92D-4559-B13C-C59F8FFF3F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18800" yWindow="80" windowWidth="18880" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -532,10 +532,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1553,6 +1553,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1581,19 +1584,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
       <c r="N1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2084,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50AB575-EC42-4E43-8A2B-17C63E38866C}">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2093,7 +2096,8 @@
     <col min="1" max="1" width="5.69921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="5.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.19921875" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.8984375" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.09765625" style="2" customWidth="1"/>
@@ -2108,19 +2112,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
       <c r="N1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2603,15 +2607,11 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="E17" s="2" cm="1">
-        <f t="array" ref="E17">_xlfn.XLOOKUP($B$17,_xlfn.ANCHORARRAY($C$18),_xlfn.ANCHORARRAY($B$18),,-1)</f>
-        <v>0.96</v>
-      </c>
-      <c r="F17" s="2" cm="1">
-        <f t="array" ref="F17">_xlfn.XLOOKUP($B$17,_xlfn.ANCHORARRAY($C$18),_xlfn.ANCHORARRAY($B$18),,-1)</f>
-        <v>0.96</v>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <f>IF(E18-B17&lt;B17-E19,F18,F19)</f>
+        <v>0.97</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>6</v>
@@ -2626,9 +2626,17 @@
         <f t="array" ref="C18:C127">_xlfn.TOCOL(C3:L13)</f>
         <v>0</v>
       </c>
+      <c r="E18" s="2" cm="1">
+        <f t="array" ref="E18">INDEX(_xlfn.ANCHORARRAY(C18),_xlfn.XMATCH(B17,_xlfn.ANCHORARRAY(C18),1))</f>
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="F18" s="2" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.ANCHORARRAY(B18),_xlfn.XMATCH(B17,_xlfn.ANCHORARRAY(C18),1))</f>
+        <v>0.98</v>
+      </c>
       <c r="I18" s="2">
         <f>F17</f>
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
@@ -2637,6 +2645,14 @@
       </c>
       <c r="C19" s="2">
         <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E19" s="2" cm="1">
+        <f t="array" ref="E19">INDEX(_xlfn.ANCHORARRAY(C18),_xlfn.XMATCH(B17,_xlfn.ANCHORARRAY(C18),-1))</f>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="F19" s="2" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.ANCHORARRAY(B18),_xlfn.XMATCH(B17,_xlfn.ANCHORARRAY(C18),-1))</f>
+        <v>0.97</v>
       </c>
       <c r="H19" s="26">
         <v>4.7800000000000002E-2</v>
@@ -3602,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7606F015-793F-4926-B0BC-9791639C7209}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -3619,19 +3635,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
       <c r="N1" s="25" t="s">
         <v>1</v>
       </c>
@@ -4108,7 +4124,7 @@
       </c>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O17" s="37" cm="1">
+      <c r="O17" s="36" cm="1">
         <f t="array" ref="O17:O23">_xlfn.LET(
 _xlpm.a, _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",",TRUE,C2:L2&amp;"-"&amp;B3:B13&amp;"-"&amp;C3:L13),"-",",")*1,
 _xlpm.b, _xlfn.BYROW(N3:N9, _xlfn.LAMBDA(_xlpm.x, SUM(_xlfn.XLOOKUP(_xlpm.x,_xlfn.TAKE(_xlpm.a,,-1),_xlfn.TAKE(_xlpm.a,,2),,-1)))),
@@ -4118,32 +4134,32 @@
       </c>
     </row>
     <row r="18" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O18" s="37">
+      <c r="O18" s="36">
         <v>0.44</v>
       </c>
     </row>
     <row r="19" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O19" s="37">
+      <c r="O19" s="36">
         <v>0.77999999999999992</v>
       </c>
     </row>
     <row r="20" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O20" s="37">
+      <c r="O20" s="36">
         <v>0.96</v>
       </c>
     </row>
     <row r="21" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O21" s="37">
+      <c r="O21" s="36">
         <v>0.93</v>
       </c>
     </row>
     <row r="22" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O22" s="37">
+      <c r="O22" s="36">
         <v>0.97</v>
       </c>
     </row>
     <row r="23" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O23" s="37">
+      <c r="O23" s="36">
         <v>1.06</v>
       </c>
     </row>

--- a/CH-84 Normal Distribution.xlsx
+++ b/CH-84 Normal Distribution.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A7CF53-D92D-4559-B13C-C59F8FFF3F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF39089-D465-4CE8-A031-1B5AFC9EC625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18800" yWindow="80" windowWidth="18880" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18800" yWindow="230" windowWidth="18960" windowHeight="20600" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt" sheetId="3" r:id="rId3"/>
+    <sheet name="MySingleFunction" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alt!$N$3:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$N$3:$O$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MySingleFunction!$N$3:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$N$3:$O$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>Z</t>
   </si>
@@ -86,6 +88,12 @@
   </si>
   <si>
     <t>What is meant by closest?</t>
+  </si>
+  <si>
+    <t>Closest in the lookup column. This means that I need to find both the larger and smaller match.</t>
+  </si>
+  <si>
+    <t>Best way to determine the closest match?</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1545,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="858" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="969" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2087,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50AB575-EC42-4E43-8A2B-17C63E38866C}">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2099,7 +2107,7 @@
     <col min="4" max="4" width="5.8984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.69921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.19921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.09765625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.69921875" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.8984375" style="2" customWidth="1"/>
@@ -2607,14 +2615,11 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
-        <v>0.33500000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="F17" s="2">
         <f>IF(E18-B17&lt;B17-E19,F18,F19)</f>
-        <v>0.97</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
@@ -2628,15 +2633,15 @@
       </c>
       <c r="E18" s="2" cm="1">
         <f t="array" ref="E18">INDEX(_xlfn.ANCHORARRAY(C18),_xlfn.XMATCH(B17,_xlfn.ANCHORARRAY(C18),1))</f>
-        <v>0.33650000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="F18" s="2" cm="1">
         <f t="array" ref="F18">INDEX(_xlfn.ANCHORARRAY(B18),_xlfn.XMATCH(B17,_xlfn.ANCHORARRAY(C18),1))</f>
-        <v>0.98</v>
+        <v>0.44</v>
       </c>
       <c r="I18" s="2">
         <f>F17</f>
-        <v>0.97</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
@@ -2648,11 +2653,11 @@
       </c>
       <c r="E19" s="2" cm="1">
         <f t="array" ref="E19">INDEX(_xlfn.ANCHORARRAY(C18),_xlfn.XMATCH(B17,_xlfn.ANCHORARRAY(C18),-1))</f>
-        <v>0.33400000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="F19" s="2" cm="1">
         <f t="array" ref="F19">INDEX(_xlfn.ANCHORARRAY(B18),_xlfn.XMATCH(B17,_xlfn.ANCHORARRAY(C18),-1))</f>
-        <v>0.97</v>
+        <v>0.44</v>
       </c>
       <c r="H19" s="26">
         <v>4.7800000000000002E-2</v>
@@ -2812,6 +2817,9 @@
       <c r="C28" s="2">
         <v>3.9800000000000002E-2</v>
       </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="2">
@@ -2820,6 +2828,9 @@
       <c r="C29" s="2">
         <v>4.3799999999999999E-2</v>
       </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="2">
@@ -2836,6 +2847,9 @@
       <c r="C31" s="2">
         <v>5.1700000000000003E-2</v>
       </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="2">
@@ -2843,6 +2857,10 @@
       </c>
       <c r="C32" s="2">
         <v>5.57E-2</v>
+      </c>
+      <c r="F32" s="2" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn._xlws.SORT(_xlfn.HSTACK(ABS(E18:E19-B17),F18:F19),1),1,2)</f>
+        <v>0.44</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -4170,4 +4188,570 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DC9428-FFE1-4FF0-ADAA-E84D494725D3}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.69921875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="2" customWidth="1"/>
+    <col min="5" max="12" width="5.8984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="15" width="14.8984375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="N1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="J2" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="N3" s="26">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.57E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.96E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="N4" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="O4" s="27">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.1026</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.1103</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="N5" s="29">
+        <v>0.2823</v>
+      </c>
+      <c r="O5" s="27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.1179</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1217</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.1255</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.1293</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.1331</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.1368</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.1406</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.1517</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.15540000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.1628</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.1736</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.1772</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.1915</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2019</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.2054</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.2157</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.219</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.2291</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.2324</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.2389</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.2422</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="O9" s="27">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.2611</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.2823</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.28520000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.31330000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.33889999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.34129999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.3508</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.3599</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.36209999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="2" cm="1">
+        <f t="array" ref="D18:D24">_xlfn.LAMBDA(_xlpm.x,
+    _xlfn.LET(
+        _xlpm.s, _xlfn.TOCOL(B3:B13 + C2:L2 + 0),
+        _xlpm.t, _xlfn.TOCOL(C3:L13),
+        _xlpm.u, _xlfn.XMATCH(_xlpm.x, _xlpm.t, 1),
+        _xlpm.l, _xlfn.XMATCH(_xlpm.x, _xlpm.t, -1),
+        IF(
+            INDEX(_xlpm.t, _xlpm.u) - _xlpm.x &lt;= _xlpm.x - INDEX(_xlpm.t, _xlpm.l),
+            INDEX(_xlpm.s, _xlpm.u),
+            INDEX(_xlpm.s, _xlpm.l)
+        )
+    )
+)(N3:N9)</f>
+        <v>0.12000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="2">
+        <v>0.77999999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D24" s="2">
+        <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-84 Normal Distribution.xlsx
+++ b/CH-84 Normal Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF39089-D465-4CE8-A031-1B5AFC9EC625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97951ED4-ED67-49AE-8625-D8CE0FB3758A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18800" yWindow="230" windowWidth="18960" windowHeight="20600" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
